--- a/biology/Médecine/1708_en_santé_et_médecine/1708_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1708_en_santé_et_médecine/1708_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1708_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1708_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1708 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1708_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1708_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 janvier : « Édit portant création d'offices de médecins et de chirurgiens des armées du Roy, avec l'État des appointemens qui leur seront payez[1]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 janvier : « Édit portant création d'offices de médecins et de chirurgiens des armées du Roy, avec l'État des appointemens qui leur seront payez. »
 1er octobre : Jean-Claude-Adrien Helvétius, futur médecin de la Cour de Philippe d'Orléans, obtient son titre de docteur en médecine de la Faculté de Paris.
-L'hiver 1708-1709 est particulièrement rigoureux. Dans le Morvan par exemple, le froid fait entièrement geler la plupart des ruisseaux et des étangs en moins de 4 heures et le dégel voit des morceaux de glace de 1 m d'épaisseur[2].</t>
+L'hiver 1708-1709 est particulièrement rigoureux. Dans le Morvan par exemple, le froid fait entièrement geler la plupart des ruisseaux et des étangs en moins de 4 heures et le dégel voit des morceaux de glace de 1 m d'épaisseur.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1708_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1708_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Herman Boerhaave (1668-1738) publie Institutiones medicae, un des premiers ouvrages de physiologie[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Herman Boerhaave (1668-1738) publie Institutiones medicae, un des premiers ouvrages de physiologie.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1708_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1708_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>20 mai : Pierre Baux (mort en 1790), médecin, météorologiste et naturaliste français.
 20 juin : William Lewis (mort en 1781), médecin et chimiste anglais.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1708_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1708_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>18 juillet : Christian Friedrich Garmann, médecin allemand, né le 19 janvier 1640.
 28 août : Edward Browne (né en 1644), médecin et écrivain anglais.
-28 décembre : Joseph Pitton de Tournefort (né en 1656), médecin et botaniste français[4].</t>
+28 décembre : Joseph Pitton de Tournefort (né en 1656), médecin et botaniste français.</t>
         </is>
       </c>
     </row>
